--- a/LaTeX_v7/Figures/source_files/Vehicle_enroll.xlsx
+++ b/LaTeX_v7/Figures/source_files/Vehicle_enroll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LaTeX_v7\Figures\source_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4958770-B29E-4D48-9055-E721D69B14B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC2DF4B-B065-4A8F-8FE7-A12C64C54216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2ED6CC81-2714-48C0-A39C-FC7FD8B5CCD7}"/>
   </bookViews>
@@ -133,6 +133,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32623794212218649"/>
+          <c:y val="3.5124692658939235E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -795,6 +803,7 @@
         <c:axId val="1123551264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1861,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26610B3-5DFD-4608-82C5-DEDCBA0870F6}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
